--- a/medicine/Mort/Décès_en_1979/Décès_en_1979.xlsx
+++ b/medicine/Mort/Décès_en_1979/Décès_en_1979.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1979</t>
+          <t>Décès_en_1979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1979</t>
+          <t>Décès_en_1979</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Manuel Bruker, peintre, collectionneur et éditeur d'art français (° 6 décembre 1891).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Manuel Bruker, peintre, collectionneur et éditeur d'art français (° 6 décembre 1891).
 François Fauck, peintre français (° 11 novembre 1911).
 Paul Hongne, bassoniste français (° 1919).
 Cécile Jubert, peintre et graveuse française (° 29 décembre 1885).
-Felix Labunski, compositeur américain d'origine polonaise (° 27 décembre 1898).
-Janvier
-3 janvier : Ernesto Palacio, avocat, historien, essayiste, enseignant, journaliste et homme politique argentin (° 4 janvier 1900).
+Felix Labunski, compositeur américain d'origine polonaise (° 27 décembre 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : Ernesto Palacio, avocat, historien, essayiste, enseignant, journaliste et homme politique argentin (° 4 janvier 1900).
 4 janvier : Ervin Katnić, footballeur yougoslave (° 2 septembre 1921).
 5 janvier :
 Billy Bletcher, acteur, réalisateur et scénariste américain (° 24 septembre 1894).
@@ -559,9 +610,43 @@
 29 janvier : Reginald John Delargey, cardinal néo-zélandais (° 10 décembre 1914).
 31 janvier :
 Basil Dignam, acteur britannique (° 24 octobre 1905).
-Grant Green, guitariste de jazz américain (° 6 juin 1935).
-Février
-2 février : Sid Vicious, bassiste des Sex Pistols (° 10 mai 1957).
+Grant Green, guitariste de jazz américain (° 6 juin 1935).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Sid Vicious, bassiste des Sex Pistols (° 10 mai 1957).
 7 février : Joseph Mengele, officier allemand de la Schutzstaffel (SS), et criminel de guerre (° 16 mars 1911).
 9 février : Philip King, dramaturge et acteur britannique (° 30 octobre 1904).
 12 février : Jean Renoir, réalisateur français (° 15 septembre 1894).
@@ -569,9 +654,43 @@
 19 février : Evert Lundquist, footballeur international suédois (° 27 février 1900).
 21 février : Walter Guimarães, footballeur brésilien (° 17 mai 1913).
 22 février : Alexandre Ganesco, peintre, dessinateur et sculpteur roumain (° 4 septembre 1910).
-? février : A.R. Sahu Khan, homme politique fidjien (° vers 1901).
-Mars
-1er mars : Maurice Brianchon, peintre français (° 11 janvier 1899).
+? février : A.R. Sahu Khan, homme politique fidjien (° vers 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Maurice Brianchon, peintre français (° 11 janvier 1899).
 3 mars : Abdol-Hossein Hamzavi, diplomate et homme politique iranien (° 1910).
 7 mars : Renato Natali, peintre italien (° 10 mai 1883).
 9 mars : Jean-Marie Villot, cardinal français, Secrétaire d'État (° 11 octobre 1905).
@@ -596,9 +715,43 @@
 22 mars : Victor Arnautoff, peintre russe, soviétique puis américain (° 11 novembre 1896).
 23 mars : Philip Bourneuf, acteur américain (° 7 janvier 1908).
 25 mars : Georges Antenen, coureur cycliste suisse (° 20 décembre 1903).
-27 mars : Ronald Adam, acteur britannique (° 31 décembre 1896).
-Avril
-3 avril : Alexandre Orloff, peintre russe et français (° 27 janvier 1899).
+27 mars : Ronald Adam, acteur britannique (° 31 décembre 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : Alexandre Orloff, peintre russe et français (° 27 janvier 1899).
 4 avril :
 Vicente Asencio, compositeur espagnol (° 29 octobre 1908).
 Edgar Buchanan, acteur américain (° 20 mars 1903).
@@ -611,9 +764,43 @@
 Charles Bartsch, violoncelliste, chef d'orchestre et compositeur belge (° 9 décembre 1907).
 Maurice Clavel, philosophe, écrivain et journaliste (° 10 novembre 1920).
 23 avril : Juan Trujillo Domínguez, footballeur espagnol (° 29 juin 1913).
-? avril : K.B. Singh, homme politique fidjien (° 1905).
-Mai
-5 mai :
+? avril : K.B. Singh, homme politique fidjien (° 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5 mai :
 Marcel Catelein, peintre français (° 23 octobre 1892).
 Suzanne Meunier, peintre, dessinatrice et graveuse française (° 5 juillet 1888).
 7 mai :
@@ -633,9 +820,43 @@
 Blue Mitchell, trompettiste de jazz américain (° 13 mars 1930).
 22 mai : Henri Guissou, homme politique  et diplomate burkinabé né au Haut-Sénégal et Niger (° 17 novembre 1910).
 29 mai : Mary Pickford, actrice américaine (° 8 avril 1892).
-30 mai : Roger Bohnenblust, peintre, dessinateur et graveur suisse (° 15 août 1929).
-Juin
-3 juin :
+30 mai : Roger Bohnenblust, peintre, dessinateur et graveur suisse (° 15 août 1929).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin :
 Henri Cado, homme politique français (° 15 août 1903).
 Arno Schmidt, écrivain allemand (° 18 janvier 1914).
 11 juin :
@@ -648,9 +869,43 @@
 Albert Venohr, acteur allemand (° 4 septembre 1902).
 25 juin : Ewa Bandowska-Turska, soprano polonaise (° 20 mai 1894).
 28 juin : Paul Dessau, compositeur et chef d'orchestre allemand (° 19 décembre 1894).
-29 juin : Roparz Hemon, linguiste, romancier, et poète breton (° 18 novembre 1900).
-Juillet
-3 juillet :
+29 juin : Roparz Hemon, linguiste, romancier, et poète breton (° 18 novembre 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet :
 Lucien Cahen-Michel, peintre français (° 21 juin 1888).
 Louis Durey, compositeur français (° 27 mai 1888).
 4 juillet : Henri Miloch, peintre français (° 15 juillet 1898).
@@ -669,9 +924,43 @@
 23 juillet : Joseph Kessel, écrivain et académicien français (° 10 février 1898).
 27 juillet : Jean Van de Cauter, compositeur, organiste et organier belge (° 1er août 1906).
 29 juillet : Herbert Marcuse, philosophe américain (° 19 juillet 1898).
-30 juillet : Lew Kowarski, physicien français (° 10 février 1907).
-Août
-1er août : Marie Bloch, astronome française (° 26 juillet 1902)
+30 juillet : Lew Kowarski, physicien français (° 10 février 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Marie Bloch, astronome française (° 26 juillet 1902)
 3 août :
 Alfredo Ottaviani, cardinal italien, préfet de la Congrégation pour la doctrine de la foi (° 29 octobre 1890).
 Enrico Sala, coureur cycliste italien (° 18 juillet 1891).
@@ -689,9 +978,43 @@
 29 août :
 Mary Marquet, actrice française d'origine russe (° 14 avril 1895).
 Antonio Sicurezza, peintre italien (° 25 février 1905).
-? août : Hans Otto Glahn, homme politique allemand (° 1er avril 1895).
-Septembre
-2 septembre : Felix Aylmer, acteur britannique (° 21 février 1889).
+? août : Hans Otto Glahn, homme politique allemand (° 1er avril 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Felix Aylmer, acteur britannique (° 21 février 1889).
 5 septembre : Sōfu Teshigahara, peintre et sculpteur japonais (° 17 décembre 1900).
 7 septembre :
 Ivor Armstrong Richards, critique littéraire et rhétoricien anglais (° 26 février 1893).
@@ -702,9 +1025,43 @@
 9 septembre : Wilbur Ware, contrebassiste de jazz américain (° 8 septembre 1923).
 17 septembre : Paul Maze, peintre anglo-français (° 21 mai 1887).
 24 septembre : Vasco Bergamaschi, coureur cycliste italien (° 29 septembre 1909).
-27 septembre : Klara Caro, féministe allemande (° 6 janvier 1886).
-Octobre
-2 octobre : Charlie Hickman, acteur, chanteur et animateur de radio et de télévision américain (° 24 novembre 1935).
+27 septembre : Klara Caro, féministe allemande (° 6 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Charlie Hickman, acteur, chanteur et animateur de radio et de télévision américain (° 24 novembre 1935).
 3 octobre :
 Robert Dubourg, peintre français (° 13 juin 1908).
 André Godinat, coureur cycliste français (° 3 septembre 1903).
@@ -715,9 +1072,43 @@
 13 octobre : Rebecca Clarke, compositrice de musique classique et altiste britannique (° 27 août 1886).
 22 octobre : Nadia Boulanger, pianiste, organiste, chef d'orchestre et pédagogue française (° 16 septembre 1887).
 30 octobre : Robert Boulin, homme politique français (° 20 juillet 1920).
-31 octobre : Putte Kock, footballeur international suédois et hockeyeur (° 29 juin 1901).
-Novembre
-1er novembre : Dominique Rustichelli, footballeur français (° 26 juin 1934))[1].
+31 octobre : Putte Kock, footballeur international suédois et hockeyeur (° 29 juin 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Dominique Rustichelli, footballeur français (° 26 juin 1934)).
 2 novembre : Jacques Mesrine, gangster français (° 28 décembre 1936).
 3 novembre : Manuela del Rio, danseuse espagnole (° 16 juillet 1909).
 8 novembre :
@@ -737,9 +1128,43 @@
 29 novembre : Jean Cabassu, footballeur français (° 1er août 1902).
 30 novembre :
 Emile Severeyns, coureur cycliste belge (° 28 août 1931).
-James Aubrey Simmons, magistrat et homme politique canadien (° 8 juillet 1897).
-Décembre
-2 décembre : Jan Pijnenburg, coureur cycliste sur piste néerlandais (° 15 février 1906).
+James Aubrey Simmons, magistrat et homme politique canadien (° 8 juillet 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1979</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1979</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Jan Pijnenburg, coureur cycliste sur piste néerlandais (° 15 février 1906).
 3 décembre : Abdulkerim Alizada, historien azerbaïdjanais (° 11 janvier 1906).
 5 décembre : Sonia Delaunay, peintre française d'origine ukrainienne (° 14 novembre 1885).
 6 décembre : Carlos Camacho, homme politique américain (° 16 novembre 1924).
